--- a/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>2.0.0-draft</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
+    <sheet name="Properties" r:id="rId4" sheetId="2"/>
+    <sheet name="Concepts" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01</t>
+    <t>2025-09-22</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,10 +121,40 @@
     <t>1</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept. One of active, experimental, deprecated, or retired.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>effectiveDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#effectiveDate</t>
+  </si>
+  <si>
+    <t>The date at which the concept status was last changed.</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
     <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>Display</t>
@@ -448,6 +479,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -456,16 +542,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>36</v>
-      </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -473,10 +559,10 @@
         <v>34</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
     </row>

--- a/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-core-encounter-act-codes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>
